--- a/data_year/zb/能源/燃料油平衡表.xlsx
+++ b/data_year/zb/能源/燃料油平衡表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,690 +548,690 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1131.3</v>
+        <v>1354.84</v>
       </c>
       <c r="C2" t="n">
-        <v>850</v>
+        <v>1326.6524092227</v>
       </c>
       <c r="D2" t="n">
-        <v>291.2</v>
+        <v>201.34</v>
       </c>
       <c r="E2" t="n">
-        <v>19</v>
+        <v>13.528944</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>25.9</v>
-      </c>
+        <v>1.1403</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>2975.1</v>
+        <v>2377.319519457</v>
       </c>
       <c r="J2" t="n">
-        <v>1843.7</v>
+        <v>1022.48</v>
       </c>
       <c r="K2" t="n">
-        <v>16.7</v>
+        <v>30.757545</v>
       </c>
       <c r="L2" t="n">
-        <v>11.6</v>
+        <v>8.616943750000001</v>
       </c>
       <c r="M2" t="n">
-        <v>814.2</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>123.89</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1029.61</v>
+      </c>
       <c r="O2" t="n">
-        <v>57.9</v>
+        <v>1419.72</v>
       </c>
       <c r="P2" t="n">
-        <v>3836.7</v>
+        <v>3765.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>-36.1</v>
+        <v>7.42382024999961</v>
       </c>
       <c r="R2" t="n">
-        <v>136.6</v>
+        <v>2.99000000000001</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
-        <v>2053.7</v>
+        <v>2486.97</v>
       </c>
       <c r="U2" t="n">
-        <v>2741.4</v>
+        <v>2403.17617975</v>
       </c>
       <c r="V2" t="n">
-        <v>3872.8</v>
+        <v>3758.01617975</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.3</v>
+        <v>2695.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1160.92</v>
+        <v>1432.6</v>
       </c>
       <c r="C3" t="n">
-        <v>855</v>
+        <v>1345.1570317109</v>
       </c>
       <c r="D3" t="n">
-        <v>299.62</v>
+        <v>183.75</v>
       </c>
       <c r="E3" t="n">
-        <v>17.02</v>
+        <v>16.2347328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G3" t="n">
-        <v>22.76</v>
-      </c>
+        <v>1.311345</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>2949.32</v>
+        <v>2260.15</v>
       </c>
       <c r="J3" t="n">
-        <v>1788.4</v>
+        <v>827.55</v>
       </c>
       <c r="K3" t="n">
-        <v>16.18</v>
+        <v>30.603757275</v>
       </c>
       <c r="L3" t="n">
-        <v>12.28</v>
+        <v>9.344213802500001</v>
       </c>
       <c r="M3" t="n">
-        <v>838.54</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>60.85</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1188</v>
+      </c>
       <c r="O3" t="n">
-        <v>84.87</v>
+        <v>1685.568</v>
       </c>
       <c r="P3" t="n">
-        <v>3836.86</v>
+        <v>3667.612</v>
       </c>
       <c r="Q3" t="n">
-        <v>-13.3600000000006</v>
+        <v>4.81353010920066</v>
       </c>
       <c r="R3" t="n">
-        <v>8.66000000000003</v>
+        <v>-26</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
-        <v>1864.39</v>
+        <v>2281.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2689.3</v>
+        <v>2230.1984698908</v>
       </c>
       <c r="V3" t="n">
-        <v>3850.22</v>
+        <v>3662.7984698908</v>
       </c>
       <c r="W3" t="n">
-        <v>2048.68</v>
+        <v>3097.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1198.23</v>
+        <v>1610.45</v>
       </c>
       <c r="C4" t="n">
-        <v>852.1</v>
+        <v>1383.94043192865</v>
       </c>
       <c r="D4" t="n">
-        <v>266.66</v>
+        <v>187.34</v>
       </c>
       <c r="E4" t="n">
-        <v>19.1</v>
+        <v>19.94</v>
       </c>
       <c r="F4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18.91</v>
-      </c>
+        <v>1.9670175</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>2970.86</v>
+        <v>2241.69</v>
       </c>
       <c r="J4" t="n">
-        <v>1772.63</v>
+        <v>631.24</v>
       </c>
       <c r="K4" t="n">
-        <v>19.1</v>
+        <v>27.0537214311</v>
       </c>
       <c r="L4" t="n">
-        <v>12.3</v>
+        <v>8.692922100465751</v>
       </c>
       <c r="M4" t="n">
-        <v>912.66</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>43.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1380.02</v>
+      </c>
       <c r="O4" t="n">
-        <v>104.91</v>
+        <v>1601.514</v>
       </c>
       <c r="P4" t="n">
-        <v>3702.8</v>
+        <v>3690.976</v>
       </c>
       <c r="Q4" t="n">
-        <v>-171.07</v>
+        <v>7.68910262995087</v>
       </c>
       <c r="R4" t="n">
-        <v>47.04</v>
+        <v>-63.1</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
-        <v>1845.5</v>
+        <v>2253.23</v>
       </c>
       <c r="U4" t="n">
-        <v>2675.64</v>
+        <v>2072.83689737005</v>
       </c>
       <c r="V4" t="n">
-        <v>3873.87</v>
+        <v>3683.28689737005</v>
       </c>
       <c r="W4" t="n">
-        <v>1915.17</v>
+        <v>3102.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1338.45</v>
+        <v>1852.14</v>
       </c>
       <c r="C5" t="n">
-        <v>940.29</v>
+        <v>1428.98604920579</v>
       </c>
       <c r="D5" t="n">
-        <v>260.8</v>
+        <v>167.15</v>
       </c>
       <c r="E5" t="n">
-        <v>12.08</v>
+        <v>23.36</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>20.93</v>
-      </c>
+        <v>2.0456982</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>3236.76302015243</v>
+        <v>2421.05</v>
       </c>
       <c r="J5" t="n">
-        <v>1898.31</v>
+        <v>568.91</v>
       </c>
       <c r="K5" t="n">
-        <v>17.8</v>
+        <v>59.46</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>19.07</v>
       </c>
       <c r="M5" t="n">
-        <v>1056.72</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>47.28</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1637.71</v>
+      </c>
       <c r="O5" t="n">
-        <v>188.74</v>
+        <v>1493.67</v>
       </c>
       <c r="P5" t="n">
-        <v>4291.13</v>
+        <v>3926.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.59999999999989</v>
+        <v>-27.8366639920223</v>
       </c>
       <c r="R5" t="n">
-        <v>-114.68</v>
+        <v>-90.40000000000001</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>2004.84</v>
+        <v>2775.89</v>
       </c>
       <c r="U5" t="n">
-        <v>2882.08</v>
+        <v>2101.83666399202</v>
       </c>
       <c r="V5" t="n">
-        <v>4220.53</v>
+        <v>3953.97666399202</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.71</v>
+        <v>2734.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653.03</v>
+        <v>2297.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1150.445132</v>
+        <v>1441.4</v>
       </c>
       <c r="D6" t="n">
-        <v>213.33</v>
+        <v>164.9</v>
       </c>
       <c r="E6" t="n">
-        <v>15.63</v>
+        <v>15.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.51</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>3570.397547</v>
+        <v>2835.7</v>
       </c>
       <c r="J6" t="n">
-        <v>1917.367547</v>
+        <v>538.2</v>
       </c>
       <c r="K6" t="n">
-        <v>21.36</v>
+        <v>44.6</v>
       </c>
       <c r="L6" t="n">
-        <v>24.98</v>
+        <v>17.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1429.19</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>35.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2097</v>
+      </c>
       <c r="O6" t="n">
-        <v>368.69</v>
+        <v>1279.9</v>
       </c>
       <c r="P6" t="n">
-        <v>4846.592172</v>
+        <v>4401.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.1194930000001</v>
+        <v>46.4</v>
       </c>
       <c r="R6" t="n">
-        <v>-83.227828</v>
+        <v>-6.2</v>
       </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>2029.28</v>
+        <v>3541.7</v>
       </c>
       <c r="U6" t="n">
-        <v>3130.442679</v>
+        <v>2058</v>
       </c>
       <c r="V6" t="n">
-        <v>4783.472679</v>
+        <v>4355.5</v>
       </c>
       <c r="W6" t="n">
-        <v>3269.23</v>
+        <v>2146.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1254.3</v>
+        <v>2538.3</v>
       </c>
       <c r="C7" t="n">
-        <v>1201</v>
+        <v>1439.5</v>
       </c>
       <c r="D7" t="n">
-        <v>171.1</v>
+        <v>165.1</v>
       </c>
       <c r="E7" t="n">
-        <v>13.9</v>
+        <v>16.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>2986.9</v>
+        <v>3133</v>
       </c>
       <c r="J7" t="n">
-        <v>1732.6</v>
+        <v>594.8</v>
       </c>
       <c r="K7" t="n">
-        <v>14.2</v>
+        <v>53.5</v>
       </c>
       <c r="L7" t="n">
-        <v>27.5</v>
+        <v>19</v>
       </c>
       <c r="M7" t="n">
-        <v>1068.7</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>31.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2341.6</v>
+      </c>
       <c r="O7" t="n">
-        <v>427.6</v>
+        <v>1402.1</v>
       </c>
       <c r="P7" t="n">
-        <v>4237.3</v>
+        <v>4632.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6.9</v>
+        <v>-29.2</v>
       </c>
       <c r="R7" t="n">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>1767.4</v>
+        <v>3963</v>
       </c>
       <c r="U7" t="n">
-        <v>2989.9</v>
+        <v>2123.7</v>
       </c>
       <c r="V7" t="n">
-        <v>4244.2</v>
+        <v>4662</v>
       </c>
       <c r="W7" t="n">
-        <v>2883.9</v>
+        <v>2068.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1100.63171</v>
+        <v>2570.7</v>
       </c>
       <c r="C8" t="n">
-        <v>1480.60506</v>
+        <v>1511.4</v>
       </c>
       <c r="D8" t="n">
-        <v>159.19371</v>
+        <v>158.5</v>
       </c>
       <c r="E8" t="n">
-        <v>13.14495</v>
+        <v>14.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.693726</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>2836.107889</v>
+        <v>3035.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1735.476289</v>
+        <v>464.8</v>
       </c>
       <c r="K8" t="n">
-        <v>16.34</v>
+        <v>51.9</v>
       </c>
       <c r="L8" t="n">
-        <v>21.44</v>
+        <v>17.2</v>
       </c>
       <c r="M8" t="n">
-        <v>928.048</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>31.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2381.1</v>
+      </c>
       <c r="O8" t="n">
-        <v>466.87</v>
+        <v>1342</v>
       </c>
       <c r="P8" t="n">
-        <v>4371.79</v>
+        <v>4644.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4582649999993</v>
+        <v>13.5</v>
       </c>
       <c r="R8" t="n">
-        <v>-84.09999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>1784.65</v>
+        <v>4236.9</v>
       </c>
       <c r="U8" t="n">
-        <v>3267.700025</v>
+        <v>2060.4</v>
       </c>
       <c r="V8" t="n">
-        <v>4368.331735</v>
+        <v>4631</v>
       </c>
       <c r="W8" t="n">
-        <v>3138.11</v>
+        <v>1743.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>702.0328</v>
+        <v>2690.4</v>
       </c>
       <c r="C9" t="n">
-        <v>1759.95</v>
+        <v>1771.3</v>
       </c>
       <c r="D9" t="n">
-        <v>131.48</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>11.826</v>
+        <v>12.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.9628</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>2329.1904</v>
+        <v>3043.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1627.16</v>
+        <v>353.4</v>
       </c>
       <c r="K9" t="n">
-        <v>30.740322</v>
+        <v>43.2</v>
       </c>
       <c r="L9" t="n">
-        <v>24.78</v>
+        <v>15.1</v>
       </c>
       <c r="M9" t="n">
-        <v>565.59</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>16.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2606.7</v>
+      </c>
       <c r="O9" t="n">
-        <v>631.36</v>
+        <v>1516.7</v>
       </c>
       <c r="P9" t="n">
-        <v>4158.3924</v>
+        <v>4895.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.903277999999773</v>
+        <v>8.5</v>
       </c>
       <c r="R9" t="n">
-        <v>14.9024</v>
+        <v>-66.2</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>1967.24</v>
+        <v>4563.5</v>
       </c>
       <c r="U9" t="n">
-        <v>3455.456322</v>
+        <v>2196.9</v>
       </c>
       <c r="V9" t="n">
-        <v>4157.489122</v>
+        <v>4887.3</v>
       </c>
       <c r="W9" t="n">
-        <v>2807.61</v>
+        <v>1915.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.348818</v>
+        <v>2380.2</v>
       </c>
       <c r="C10" t="n">
-        <v>1142.77</v>
+        <v>1795.7</v>
       </c>
       <c r="D10" t="n">
-        <v>129.79</v>
+        <v>59.5</v>
       </c>
       <c r="E10" t="n">
-        <v>9.460800000000001</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.028818</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>2039.47285699</v>
+        <v>2688.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1560.11</v>
+        <v>308</v>
       </c>
       <c r="K10" t="n">
-        <v>37.7</v>
+        <v>31.8</v>
       </c>
       <c r="L10" t="n">
-        <v>6.25</v>
+        <v>10.1</v>
       </c>
       <c r="M10" t="n">
-        <v>347.53</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2305.5</v>
+      </c>
       <c r="O10" t="n">
-        <v>1036.42</v>
+        <v>1673.2</v>
       </c>
       <c r="P10" t="n">
-        <v>3242.42064</v>
+        <v>4585.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.28102200000012</v>
+        <v>49.1</v>
       </c>
       <c r="R10" t="n">
-        <v>8.26064000000002</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>1737.4</v>
+        <v>3899.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2757.7908</v>
+        <v>2155.9</v>
       </c>
       <c r="V10" t="n">
-        <v>3237.139618</v>
+        <v>4536.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2533.18</v>
+        <v>2271.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.05</v>
+        <v>2395</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.638723</v>
+        <v>2025.3</v>
       </c>
       <c r="D11" t="n">
-        <v>100.71</v>
+        <v>60.2</v>
       </c>
       <c r="E11" t="n">
-        <v>12.29904</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.32</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>1521.52960443</v>
+        <v>2612.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1227.48</v>
+        <v>217.6</v>
       </c>
       <c r="K11" t="n">
-        <v>34.17505</v>
+        <v>31.8</v>
       </c>
       <c r="L11" t="n">
-        <v>8.106249999999999</v>
+        <v>10.2</v>
       </c>
       <c r="M11" t="n">
-        <v>193.02</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>13.9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2320.8</v>
+      </c>
       <c r="O11" t="n">
-        <v>1222.41</v>
+        <v>1548.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2829.332639632</v>
+        <v>4851</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53734963199986</v>
+        <v>160.7</v>
       </c>
       <c r="R11" t="n">
-        <v>-25.5123603679999</v>
+        <v>-135</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>1353.355</v>
+        <v>4506</v>
       </c>
       <c r="U11" t="n">
-        <v>2533.74529</v>
+        <v>2295.4</v>
       </c>
       <c r="V11" t="n">
-        <v>2827.79529</v>
+        <v>4690.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.9</v>
+        <v>2028.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1354.8</v>
+        <v>3031.6</v>
       </c>
       <c r="C12" t="n">
-        <v>1326.7</v>
+        <v>2042</v>
       </c>
       <c r="D12" t="n">
-        <v>201.3</v>
+        <v>231.4</v>
       </c>
       <c r="E12" t="n">
-        <v>13.5</v>
+        <v>6.6</v>
       </c>
       <c r="F12" t="n">
         <v>1.1</v>
@@ -1239,650 +1239,47 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>2377.3</v>
+        <v>3262.3</v>
       </c>
       <c r="J12" t="n">
-        <v>1022.5</v>
+        <v>230.7</v>
       </c>
       <c r="K12" t="n">
-        <v>30.8</v>
+        <v>40.7</v>
       </c>
       <c r="L12" t="n">
-        <v>8.6</v>
+        <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>123.9</v>
+        <v>29.4</v>
       </c>
       <c r="N12" t="n">
-        <v>1029.6</v>
+        <v>2770.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1419.7</v>
+        <v>2132.2</v>
       </c>
       <c r="P12" t="n">
-        <v>3765.4</v>
+        <v>5344.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.4</v>
+        <v>-20.3</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>-65.09999999999999</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>2487</v>
+        <v>5780.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2403.2</v>
+        <v>2333</v>
       </c>
       <c r="V12" t="n">
-        <v>3758</v>
+        <v>5364.6</v>
       </c>
       <c r="W12" t="n">
-        <v>2695.2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1432.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1345.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
-        <v>2260.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>827.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1188</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1685.6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3667.6</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-26</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="n">
-        <v>2281.8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2230.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3662.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3097.4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1610.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1383.9</v>
-      </c>
-      <c r="D14" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>2241.7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>631.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M14" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1380</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1601.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3691</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-63.1</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>2253.2</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2072.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3683.3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3102.4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1852.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1429</v>
-      </c>
-      <c r="D15" t="n">
-        <v>167.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2421.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>568.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1637.7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1493.7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3926.1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-27.8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>-90.40000000000001</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="n">
-        <v>2775.9</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2101.8</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3954</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2734.3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2297.5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1441.4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>2835.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>538.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="L16" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2097</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1279.9</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4401.9</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-6.2</v>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>3541.7</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2058</v>
-      </c>
-      <c r="V16" t="n">
-        <v>4355.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2146.3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2538.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1439.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>165.1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>3133</v>
-      </c>
-      <c r="J17" t="n">
-        <v>594.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>19</v>
-      </c>
-      <c r="M17" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2341.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1402.1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4632.8</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>-29.2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="n">
-        <v>3963</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2123.7</v>
-      </c>
-      <c r="V17" t="n">
-        <v>4662</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2068.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2570.7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1511.4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>3035.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>464.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="L18" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2381.1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1342</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4644.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
-        <v>4236.9</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2060.4</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4631</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1743.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2690.4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1771.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>67</v>
-      </c>
-      <c r="E19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>3043.7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>353.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2606.7</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1516.7</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4895.8</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>-66.2</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
-        <v>4563.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2196.9</v>
-      </c>
-      <c r="V19" t="n">
-        <v>4887.3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1915.3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2380.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1795.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>2688.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>308</v>
-      </c>
-      <c r="K20" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2305.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1673.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4585.2</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="R20" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
-        <v>3899.7</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2155.9</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4536.1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2271.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2395</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2025.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
-        <v>2612.5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>217.56</v>
-      </c>
-      <c r="K21" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2320.8</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1548.5</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4851</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>160.68</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-135</v>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
-        <v>4506</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2295.37</v>
-      </c>
-      <c r="V21" t="n">
-        <v>4690.34</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2028.5</v>
+        <v>1760.9</v>
       </c>
     </row>
   </sheetData>
